--- a/Burger_Flow.xlsx
+++ b/Burger_Flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ryu19\Assignment\funfunassignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73128A2-044E-44A1-8624-2859FE84A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831DF7-7F47-42A9-AA20-F218B531CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="2235" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -962,7 +962,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>

--- a/Burger_Flow.xlsx
+++ b/Burger_Flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ryu19\Assignment\funfunassignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831DF7-7F47-42A9-AA20-F218B531CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CF3A2-8B4F-4707-8D8B-A2AD5F00A3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
+    <workbookView xWindow="7200" yWindow="2235" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>Space</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Thread_3</t>
-  </si>
-  <si>
-    <t>Thread_4</t>
   </si>
   <si>
     <t>r</t>
@@ -311,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -354,9 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DA78E-779C-45B8-A9C4-2737A0894FFF}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,11 +989,11 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1017,11 +1011,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1037,7 +1031,7 @@
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1071,9 +1065,7 @@
       <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="13">
@@ -1113,9 +1105,7 @@
       <c r="N6" s="13">
         <v>-1</v>
       </c>
-      <c r="O6" s="13">
-        <v>-1</v>
-      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="14">
@@ -1155,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,36 +1154,36 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1240,37 +1230,37 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -1282,186 +1272,180 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>51</v>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1472,7 +1456,7 @@
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>42</v>
@@ -1484,8 +1468,8 @@
         <v>42</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18">
-        <v>0</v>
+      <c r="J18" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="K18" s="18">
         <v>0</v>
@@ -1503,40 +1487,40 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="19" t="s">
@@ -1544,13 +1528,13 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>46</v>
@@ -1562,8 +1546,8 @@
       <c r="K20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="19">
-        <v>0</v>
+      <c r="L20" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="M20" s="19">
         <v>0</v>
@@ -1575,112 +1559,76 @@
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="20">
-        <v>0</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="K23" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="L23" s="15">
         <v>3</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
-        <v>2</v>
-      </c>
-      <c r="L24" s="15">
-        <v>3</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Burger_Flow.xlsx
+++ b/Burger_Flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CF3A2-8B4F-4707-8D8B-A2AD5F00A3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDB033-139A-405C-8E2D-7317587D364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2235" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D0A791DF-7743-4BF4-B387-694C194087D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Space</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -360,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,6 +508,67 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E709A36-8952-4091-8B05-C8C2B95DFC6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4724400"/>
+          <a:ext cx="10067925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -953,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DA78E-779C-45B8-A9C4-2737A0894FFF}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +1033,7 @@
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -982,9 +1049,8 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1004,9 +1070,8 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1026,9 +1091,8 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>37</v>
@@ -1046,9 +1110,8 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1066,9 +1129,8 @@
         <v>17</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6">
         <v>0</v>
@@ -1106,9 +1168,8 @@
         <v>-1</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <v>4</v>
@@ -1146,9 +1207,8 @@
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="6">
         <v>1</v>
@@ -1184,9 +1244,8 @@
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1202,9 +1261,8 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1220,9 +1278,8 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="13" t="s">
@@ -1259,12 +1316,9 @@
       <c r="N11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="14" t="s">
@@ -1301,12 +1355,9 @@
       <c r="N12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="15" t="s">
@@ -1343,12 +1394,9 @@
       <c r="N13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1364,9 +1412,8 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
@@ -1391,10 +1438,9 @@
         <v>46</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1410,7 +1456,6 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1445,8 +1490,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1481,8 +1525,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1517,8 +1560,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -1553,8 +1595,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1572,7 +1613,6 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
@@ -1600,7 +1640,6 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
@@ -1628,10 +1667,15 @@
         <v>0</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>